--- a/support files/SSGD indicators metadata.xlsx
+++ b/support files/SSGD indicators metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FE1852-B881-4E05-986E-7CABBBE7D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D094B5-4787-4148-B1C5-545580F3CD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F865E888-4C0B-4936-B2BD-4E294CF4B59A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="410">
   <si>
     <t>short</t>
   </si>
@@ -167,12 +167,6 @@
     <t>pl_rullaw</t>
   </si>
   <si>
-    <t>pl_satedu</t>
-  </si>
-  <si>
-    <t>pl_sathea</t>
-  </si>
-  <si>
     <t>re_assets</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>re_mot</t>
   </si>
   <si>
-    <t>re_mov</t>
-  </si>
-  <si>
     <t>re_ownlan</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>si_hea</t>
   </si>
   <si>
-    <t>si_infint</t>
-  </si>
-  <si>
     <t>si_int</t>
   </si>
   <si>
@@ -344,15 +332,6 @@
     <t>scale</t>
   </si>
   <si>
-    <t>% aged 15-29</t>
-  </si>
-  <si>
-    <t>% aged 30-59</t>
-  </si>
-  <si>
-    <t>% aged 60+</t>
-  </si>
-  <si>
     <t>WBL: Assets score</t>
   </si>
   <si>
@@ -404,15 +383,9 @@
     <t>WBL: Pension score</t>
   </si>
   <si>
-    <t>% of male pop</t>
-  </si>
-  <si>
     <t>Tree cover loss</t>
   </si>
   <si>
-    <t>% of urban pop</t>
-  </si>
-  <si>
     <t>Level of water stress</t>
   </si>
   <si>
@@ -422,18 +395,6 @@
     <t>WBL: Workplace score</t>
   </si>
   <si>
-    <t>% aged 15-24 (w.r.t 15+ pop)</t>
-  </si>
-  <si>
-    <t>% who experienced discrimination based on disability</t>
-  </si>
-  <si>
-    <t>% who have at least one household member living with disabilities</t>
-  </si>
-  <si>
-    <t>Economic and social rights performance score</t>
-  </si>
-  <si>
     <t>EQOSOGI: Civil and political inclusion score</t>
   </si>
   <si>
@@ -443,9 +404,6 @@
     <t>EQOSOGI: Access to inclusive education score</t>
   </si>
   <si>
-    <t>Inequality of opportunities</t>
-  </si>
-  <si>
     <t>Inequality of opportunities, using HCI</t>
   </si>
   <si>
@@ -455,12 +413,6 @@
     <t>Gini index (World Bank estimate)</t>
   </si>
   <si>
-    <t>Human development index</t>
-  </si>
-  <si>
-    <t>Human capital index</t>
-  </si>
-  <si>
     <t>Log of GDP per capita, PPP</t>
   </si>
   <si>
@@ -569,15 +521,9 @@
     <t>% of hhs that has water</t>
   </si>
   <si>
-    <t>Control of corruption index</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Government effectiveness index</t>
-  </si>
-  <si>
     <t>Access to civil justice</t>
   </si>
   <si>
@@ -593,12 +539,6 @@
     <t>Life and security guarantee</t>
   </si>
   <si>
-    <t>Citizen satisfaction with education</t>
-  </si>
-  <si>
-    <t>Citizen satisfaction with health</t>
-  </si>
-  <si>
     <t>% of pop with confidence in elections</t>
   </si>
   <si>
@@ -626,9 +566,6 @@
     <t>% of hhs that has more than one person working for pay</t>
   </si>
   <si>
-    <t>% of pop who considers moving because of climate change</t>
-  </si>
-  <si>
     <t>% of pop that receives remittances</t>
   </si>
   <si>
@@ -680,9 +617,6 @@
     <t>% of pop with health insurance</t>
   </si>
   <si>
-    <t>% of pop who uses the Internet as a source of information</t>
-  </si>
-  <si>
     <t>% of pop who uses the Internet</t>
   </si>
   <si>
@@ -809,9 +743,6 @@
     <t>Percentage of households that have a motorcycle</t>
   </si>
   <si>
-    <t xml:space="preserve">Share of people that considers moving because of climate change in the next five years </t>
-  </si>
-  <si>
     <t>Percentage of households that own their land</t>
   </si>
   <si>
@@ -902,9 +833,6 @@
     <t>Percentage of people with health insurance</t>
   </si>
   <si>
-    <t>Share of population that uses the Internet as a source of information</t>
-  </si>
-  <si>
     <t>Percentage of households that have access to internet</t>
   </si>
   <si>
@@ -947,30 +875,6 @@
     <t>Percentage of households that have access to water</t>
   </si>
   <si>
-    <t>People can access and afford civil justice index</t>
-  </si>
-  <si>
-    <t>Government regulations are applied and enforced without improper influence index</t>
-  </si>
-  <si>
-    <t>Equal treatment and absence of discrimination index</t>
-  </si>
-  <si>
-    <t>Government powers are limited by the judiciary index</t>
-  </si>
-  <si>
-    <t>Life and security are effectively guaranteed index</t>
-  </si>
-  <si>
-    <t>Rule of Law index</t>
-  </si>
-  <si>
-    <t>Citizen satisfaction with the education system and schools index</t>
-  </si>
-  <si>
-    <t>Citizen satisfaction with the health care system index</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 29 years old</t>
   </si>
   <si>
@@ -1004,9 +908,6 @@
     <t>Women, business and the law index: Workplace score</t>
   </si>
   <si>
-    <t>Average value of the following rates: i) Birth registration, ii) Enrollment in preschool, iii) Survival at age 5, and iv) Equal remuneration for females doing equal work than males</t>
-  </si>
-  <si>
     <t>CO2 emissions in metric tons per capita</t>
   </si>
   <si>
@@ -1016,9 +917,6 @@
     <t>Number of degrees that a day's average temperature is below 18.3°C</t>
   </si>
   <si>
-    <t>Democracy Index</t>
-  </si>
-  <si>
     <t>Democracy Index: Civil liberties score</t>
   </si>
   <si>
@@ -1040,24 +938,12 @@
     <t>Percentage of people who have at least one household member living with disabilities</t>
   </si>
   <si>
-    <t>Economic and social human rights index</t>
-  </si>
-  <si>
-    <t>Energy intensity level of primary energy ratio</t>
-  </si>
-  <si>
     <t>Share of population living in urban areas</t>
   </si>
   <si>
-    <t>Women, business and the law index</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 24 years old (w.r.t. 15+ years old population)</t>
   </si>
   <si>
-    <t>Gap between human capital index male and female</t>
-  </si>
-  <si>
     <t>Share of male population</t>
   </si>
   <si>
@@ -1067,9 +953,6 @@
     <t>The annualized growth rate in the average consumption or income per capita of the poorest 40 percent of the population</t>
   </si>
   <si>
-    <t>Tree Cover Loss</t>
-  </si>
-  <si>
     <t>Freshwater withdrawal as a proportion of available freshwater resources</t>
   </si>
   <si>
@@ -1127,9 +1010,6 @@
     <t>ex_schoolgpi</t>
   </si>
   <si>
-    <t>ex_scientificart</t>
-  </si>
-  <si>
     <t>ex_unmetcontr</t>
   </si>
   <si>
@@ -1160,9 +1040,6 @@
     <t>[1 - 1393815]</t>
   </si>
   <si>
-    <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism: Estimate</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism measures perceptions of the likelihood of political instability and/or politically-motivated violence, including terrorism.</t>
   </si>
   <si>
@@ -1175,9 +1052,6 @@
     <t>[8 - 106]</t>
   </si>
   <si>
-    <t xml:space="preserve">	Regulatory Quality: Estimate</t>
-  </si>
-  <si>
     <t>Research and development expenditure (% of GDP)</t>
   </si>
   <si>
@@ -1190,12 +1064,6 @@
     <t>This indicator is calculated by dividing female gross enrollment ratio in primary and secondary education by male gross enrollment ratio in primary and secondary education.</t>
   </si>
   <si>
-    <t>Scientific and technical journal articles</t>
-  </si>
-  <si>
-    <t>[0 - 669744]</t>
-  </si>
-  <si>
     <t>Unmet need for contraception (% of married women ages 15-49)</t>
   </si>
   <si>
@@ -1214,9 +1082,6 @@
     <t>Gross domestic expenditures on research and development (R&amp;D), expressed as a percent of GDP. They include both capital and current expenditures in the four main (…)</t>
   </si>
   <si>
-    <t>Scientific and technical journal articles refer to the number of scientific and engineering articles published in the following fields: physics, biology, chemistry, (…)</t>
-  </si>
-  <si>
     <t>Voice and Accountability captures perceptions of the extent to which a country's citizens are able to participate in selecting their government, as well as freedom (…)</t>
   </si>
   <si>
@@ -1299,6 +1164,111 @@
   </si>
   <si>
     <t>% of pop with completed primary education</t>
+  </si>
+  <si>
+    <t>% of pop aged 15-29</t>
+  </si>
+  <si>
+    <t>% of pop aged 30-59</t>
+  </si>
+  <si>
+    <t>% of pop aged 60+</t>
+  </si>
+  <si>
+    <t>Inequality of opportunities index</t>
+  </si>
+  <si>
+    <t>% of pop who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>% of pop who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>Total fertility rate represents the number of children that would be born to a woman if she were to live to the end of her childbearing years and (…)</t>
+  </si>
+  <si>
+    <t>Political Stability and Absence of Violence/Terrorism: Estimate</t>
+  </si>
+  <si>
+    <t>Regulatory Quality: Estimate</t>
+  </si>
+  <si>
+    <t>Human Development Index</t>
+  </si>
+  <si>
+    <t>Human Capital Index</t>
+  </si>
+  <si>
+    <t>Forest area is land under natural or planted stands of trees of at least 5 meters in situ, whether productive or not and excludes tree stands in (…)</t>
+  </si>
+  <si>
+    <t>The Democracy Index is an index measuring the quality of democracy across the world. Is centrally concerned with democratic rights and democratic institutions.</t>
+  </si>
+  <si>
+    <t>Average value of the following rates: i) Birth registration, ii) Enrollment in preschool, iii) Survival at age 5, and iv) Equal remuneration for females (…)</t>
+  </si>
+  <si>
+    <t>The Human Development Index (HDI) is a summary measure of average achievement in: a long and healthy life, being knowledgeable and having a decent standard of living. (…)</t>
+  </si>
+  <si>
+    <t>The HCI calculates the contributions of health and education to worker productivity. The final index score ranges from zero to one and measures the productivity as (…)</t>
+  </si>
+  <si>
+    <t>Strength of legal rights index measures the degree to which collateral and bankruptcy laws protect the rights of borrowers and lenders and thus facilitate lending.</t>
+  </si>
+  <si>
+    <t>% of male population</t>
+  </si>
+  <si>
+    <t>Economic and Social Rights Performance Score</t>
+  </si>
+  <si>
+    <t>The Economic and Social Rights Performance Score reflects how well countries are fulfilling their citizens' economic and social rights. This score evaluates (…)</t>
+  </si>
+  <si>
+    <t>Energy intensity level of primary energy is the ratio between energy supply and gross domestic product measured at purchasing power parity. Energy intensity is (…)</t>
+  </si>
+  <si>
+    <t>The inequality of opportunities index is computed as the gap in the Human Capital Index between males and females.</t>
+  </si>
+  <si>
+    <t>The Tree Cover Loss indicator shows year-by-year tree cover loss, defined as stand level replacement of vegetation greater than 5 meters, within the selected area. (…)</t>
+  </si>
+  <si>
+    <t>% of urban population</t>
+  </si>
+  <si>
+    <t>% of pop aged 15-24 (w.r.t 15+ pop)</t>
+  </si>
+  <si>
+    <t>This indicator measures the accessibility and affordability of civil courts, including whether people are aware of available remedies; can access and afford legal (…)</t>
+  </si>
+  <si>
+    <t>Control of corruption captures perceptions of the extent to which public power is exercised for private gain, including both petty and grand forms of corruption (…)</t>
+  </si>
+  <si>
+    <t>Government effectiveness captures perceptions of the quality of public services, the quality of the civil service and the degree of its independence from political (…)</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the enforcement of regulations is subject to bribery or improper influence by private interests, and whether public services, (…)</t>
+  </si>
+  <si>
+    <t>This indicator measures whether individuals are free from discrimination—based on socio-economic status, gender, ethnicity, religion, national origin, sexual (…)</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the judiciary has the independence and the ability in practice to exercise effective checks on the government.</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the police inflict physical harm upon criminal suspects during arrest and interrogation, and whether political dissidents or (…)</t>
+  </si>
+  <si>
+    <t>Rule of law captures perceptions of the extent to which agents have confidence in and abide by the rules of society, and in particular the quality of contract (…)</t>
+  </si>
+  <si>
+    <t>The Women, Business, and the Law score measures how laws and regulations affect women's economic opportunity (…)</t>
+  </si>
+  <si>
+    <t>The Civic Space Score measures the state of civic freedoms in a country, specifically evaluating the conditions for civil society based on three fundamental (…)</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229DB37B-89C2-4DA6-A412-C36651605F97}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E134"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,19 +1664,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,19 +1684,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,39 +1704,39 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,19 +1744,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1794,19 +1764,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,139 +1784,139 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,19 +1924,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,39 +1944,39 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
         <v>394</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,39 +1984,39 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,19 +2024,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,19 +2044,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,19 +2064,19 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,19 +2084,19 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,19 +2104,19 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,19 +2124,19 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,19 +2144,19 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,19 +2164,19 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,19 +2184,19 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,19 +2204,19 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,19 +2224,19 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2274,19 +2244,19 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>384</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,19 +2264,19 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2314,39 +2284,39 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>385</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2354,59 +2324,59 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F36" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,79 +2384,79 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2494,19 +2464,19 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,19 +2484,19 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>392</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,19 +2504,19 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2554,19 +2524,19 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,19 +2544,19 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,19 +2564,19 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>398</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,59 +2584,59 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2674,19 +2644,19 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,19 +2664,19 @@
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
-        <v>302</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2714,19 +2684,19 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2734,19 +2704,19 @@
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,19 +2724,19 @@
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>303</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,19 +2744,19 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,19 +2764,19 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,19 +2784,19 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2834,19 +2804,19 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,19 +2824,19 @@
         <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,19 +2844,19 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,19 +2864,19 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,19 +2884,19 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,19 +2904,19 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,19 +2924,19 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2974,19 +2944,19 @@
         <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F66" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,19 +2964,19 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F67" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,19 +2984,19 @@
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,19 +3004,19 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,19 +3024,19 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,19 +3044,19 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E71" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,19 +3064,19 @@
         <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,19 +3084,19 @@
         <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,19 +3104,19 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,19 +3124,19 @@
         <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,19 +3144,19 @@
         <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,19 +3164,19 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,16 +3187,16 @@
         <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,19 +3204,19 @@
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,19 +3224,19 @@
         <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,19 +3244,19 @@
         <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,19 +3264,19 @@
         <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="F82" t="s">
-        <v>267</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,19 +3284,19 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,19 +3304,19 @@
         <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3354,19 +3324,19 @@
         <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,19 +3344,19 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,19 +3364,19 @@
         <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,19 +3384,19 @@
         <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>414</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="F88" t="s">
-        <v>414</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,19 +3404,19 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E89" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,19 +3424,19 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F90" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,19 +3444,19 @@
         <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
-        <v>413</v>
+        <v>135</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,19 +3464,19 @@
         <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3514,19 +3484,19 @@
         <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,19 +3504,19 @@
         <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F94" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,179 +3524,179 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F96" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F97" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D98" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F98" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F99" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E101" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F101" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E102" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F102" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>418</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F103" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,239 +3704,239 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E104" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F104" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F105" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E106" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F106" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E107" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F107" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E108" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F108" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F109" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E110" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E111" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E112" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F112" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F113" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C114" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E114" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F114" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E115" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F115" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3974,19 +3944,19 @@
         <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E116" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,363 +3964,262 @@
         <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F117" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F118" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>314</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="C119" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E119" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="F119" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="C120" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E120" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E121" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E122" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="F122" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="B123" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D123" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E123" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="F123" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="B124" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="F124" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="F125" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="F126" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="B127" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E127" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="F127" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="B128" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
       <c r="F128" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D129" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="F129" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>360</v>
-      </c>
-      <c r="B130" t="s">
-        <v>379</v>
-      </c>
-      <c r="C130" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130" t="s">
-        <v>148</v>
-      </c>
-      <c r="E130" t="s">
-        <v>151</v>
-      </c>
-      <c r="F130" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>361</v>
-      </c>
-      <c r="B131" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E131" t="s">
-        <v>381</v>
-      </c>
-      <c r="F131" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>362</v>
-      </c>
-      <c r="B132" t="s">
-        <v>383</v>
-      </c>
-      <c r="C132" t="s">
-        <v>149</v>
-      </c>
-      <c r="D132" t="s">
-        <v>190</v>
-      </c>
-      <c r="E132" t="s">
-        <v>384</v>
-      </c>
-      <c r="F132" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>363</v>
-      </c>
-      <c r="B133" t="s">
-        <v>385</v>
-      </c>
-      <c r="C133" t="s">
-        <v>148</v>
-      </c>
-      <c r="D133" t="s">
-        <v>148</v>
-      </c>
-      <c r="E133" t="s">
-        <v>151</v>
-      </c>
-      <c r="F133" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>395</v>
-      </c>
-      <c r="B134" t="s">
-        <v>387</v>
-      </c>
-      <c r="C134" t="s">
-        <v>177</v>
-      </c>
-      <c r="D134" t="s">
-        <v>150</v>
-      </c>
-      <c r="E134" t="s">
-        <v>375</v>
-      </c>
-      <c r="F134" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F134" xr:uid="{229DB37B-89C2-4DA6-A412-C36651605F97}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/support files/SSGD indicators metadata.xlsx
+++ b/support files/SSGD indicators metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SSGD v2.0\support files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D094B5-4787-4148-B1C5-545580F3CD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D20B16-5FCF-4371-8711-014E78D5815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F865E888-4C0B-4936-B2BD-4E294CF4B59A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="416">
   <si>
     <t>short</t>
   </si>
@@ -332,69 +332,24 @@
     <t>scale</t>
   </si>
   <si>
-    <t>WBL: Assets score</t>
-  </si>
-  <si>
     <t>CO2 emissions</t>
   </si>
   <si>
-    <t>Democracy index (DI)</t>
-  </si>
-  <si>
-    <t>DI: Civil liberties score</t>
-  </si>
-  <si>
-    <t>DI: Electoral process and pluralism score</t>
-  </si>
-  <si>
-    <t>DI: Functioning of government score</t>
-  </si>
-  <si>
-    <t>DI: Political culture score</t>
-  </si>
-  <si>
-    <t>DI: Political participation score</t>
-  </si>
-  <si>
     <t>Energy intensity level of primary energy</t>
   </si>
   <si>
-    <t>WBL: Entrepreneurship score</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>Strength of legal rights index</t>
   </si>
   <si>
-    <t>WBL: Marriage score</t>
-  </si>
-  <si>
-    <t>WBL: Mobility score</t>
-  </si>
-  <si>
-    <t>WBL: Parenthood score</t>
-  </si>
-  <si>
-    <t>WBL: Pay score</t>
-  </si>
-  <si>
-    <t>WBL: Pension score</t>
-  </si>
-  <si>
     <t>Tree cover loss</t>
   </si>
   <si>
     <t>Level of water stress</t>
   </si>
   <si>
-    <t>Women, business and the law (WBL) index</t>
-  </si>
-  <si>
-    <t>WBL: Workplace score</t>
-  </si>
-  <si>
     <t>EQOSOGI: Civil and political inclusion score</t>
   </si>
   <si>
@@ -404,9 +359,6 @@
     <t>EQOSOGI: Access to inclusive education score</t>
   </si>
   <si>
-    <t>Inequality of opportunities, using HCI</t>
-  </si>
-  <si>
     <t>GDP per capita, PPP (constant 2017 international $)</t>
   </si>
   <si>
@@ -464,63 +416,18 @@
     <t>Average share of Assets</t>
   </si>
   <si>
-    <t>% of hhs that has a car</t>
-  </si>
-  <si>
-    <t>% of hhs that has a cellphone</t>
-  </si>
-  <si>
-    <t>% of hhs that has a computer</t>
-  </si>
-  <si>
-    <t>% of pop gone without enough food</t>
-  </si>
-  <si>
-    <t>% of hhs that has a fridge</t>
-  </si>
-  <si>
-    <t>% of hhs that has a motorcycle</t>
-  </si>
-  <si>
-    <t>% of hhs that has a radio</t>
-  </si>
-  <si>
-    <t>% of hhs that has a sewing machine</t>
-  </si>
-  <si>
-    <t>% of hhs that has a TV</t>
-  </si>
-  <si>
-    <t>% of hhs that has a washing machine</t>
-  </si>
-  <si>
     <t>Number of violent events</t>
   </si>
   <si>
-    <t>% of hhs that has electricity</t>
-  </si>
-  <si>
-    <t>% of hhs that has internet</t>
-  </si>
-  <si>
     <t>Labor force participation rate</t>
   </si>
   <si>
-    <t>% of pop attending secondary school</t>
-  </si>
-  <si>
     <t>% of pop work and are self-employed</t>
   </si>
   <si>
-    <t>% of pop that has social security</t>
-  </si>
-  <si>
     <t>Unemployment rate</t>
   </si>
   <si>
-    <t>% of hhs that has water</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -539,111 +446,21 @@
     <t>Life and security guarantee</t>
   </si>
   <si>
-    <t>% of pop with confidence in elections</t>
-  </si>
-  <si>
-    <t>% of pop with confidence in Government</t>
-  </si>
-  <si>
-    <t>% of pop with confidence in the Justice System</t>
-  </si>
-  <si>
-    <t>% of pop with confidence in the Police</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
     <t>Fatalities due to violence</t>
   </si>
   <si>
-    <t>% of pop who can freely express what they think</t>
-  </si>
-  <si>
-    <t>% of pop who receive gov. transfers</t>
-  </si>
-  <si>
-    <t>% of hhs that has more than one person working for pay</t>
-  </si>
-  <si>
-    <t>% of pop that receives remittances</t>
-  </si>
-  <si>
-    <t>% of pop that saves money</t>
-  </si>
-  <si>
-    <t>% of hhs that own land</t>
-  </si>
-  <si>
-    <t>% of pop who are active members in an organization</t>
-  </si>
-  <si>
-    <t>% of pop who attended a demonstration</t>
-  </si>
-  <si>
-    <t>% of pop who don't like homosexuals as neighbors</t>
-  </si>
-  <si>
-    <t>% of pop who feels insecure living neighborhood</t>
-  </si>
-  <si>
-    <t>% of pop who says that racist behavior is frequent neighborhood</t>
-  </si>
-  <si>
-    <t>% of pop who got together to try to solve problems</t>
-  </si>
-  <si>
-    <t>% of pop who feels unsafe from crime at home</t>
-  </si>
-  <si>
-    <t>% of pop who were victim of crime</t>
-  </si>
-  <si>
-    <t>% of pop who participates in a voluntary association</t>
-  </si>
-  <si>
-    <t>% of pop who voted</t>
-  </si>
-  <si>
     <t>% of women who believe a husband is justified in beating his wife</t>
   </si>
   <si>
     <t>% of women who are the chief earner in their household</t>
   </si>
   <si>
-    <t>% of pop that work with a contract</t>
-  </si>
-  <si>
-    <t>% of pop with health insurance</t>
-  </si>
-  <si>
-    <t>% of pop who uses the Internet</t>
-  </si>
-  <si>
-    <t>% of pop who think men are better political leaders than women</t>
-  </si>
-  <si>
-    <t>% of pop who think most people can be trusted</t>
-  </si>
-  <si>
-    <t>% of pop who think men have more right to job than women</t>
-  </si>
-  <si>
-    <t>% of pop who owns a bank account</t>
-  </si>
-  <si>
-    <t>% of pop attending to primary school</t>
-  </si>
-  <si>
     <t>% of women in the parliament</t>
   </si>
   <si>
-    <t>% of pop who think is a problem if women earn more than men</t>
-  </si>
-  <si>
-    <t>% of hhs that has access to improved sanitation</t>
-  </si>
-  <si>
     <t>Metric tons per capita</t>
   </si>
   <si>
@@ -1070,9 +887,6 @@
     <t>Unmet need for contraception is the percentage of fertile, married women of reproductive age who do not want to become pregnant and are not using contraception.</t>
   </si>
   <si>
-    <t>Voice and Accountability: Estimate</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Internet users are individuals who have used the Internet (from any location) in the last 3 months. The Internet can be used via a computer, mobile phone, personal digital (..)</t>
   </si>
   <si>
@@ -1157,42 +971,12 @@
     <t>Ratio of female to male labor force participation rate is calculated by dividing female labor force participation rate by male labor force participation rate and multiplying by 100.</t>
   </si>
   <si>
-    <t>% of pop that agrees they are free to join any organization they like without fear</t>
-  </si>
-  <si>
-    <t>% of 25+ yo women with at least secondary education</t>
-  </si>
-  <si>
-    <t>% of pop with completed primary education</t>
-  </si>
-  <si>
-    <t>% of pop aged 15-29</t>
-  </si>
-  <si>
-    <t>% of pop aged 30-59</t>
-  </si>
-  <si>
-    <t>% of pop aged 60+</t>
-  </si>
-  <si>
     <t>Inequality of opportunities index</t>
   </si>
   <si>
-    <t>% of pop who experienced discrimination based on disability</t>
-  </si>
-  <si>
-    <t>% of pop who have at least one household member living with disabilities</t>
-  </si>
-  <si>
     <t>Total fertility rate represents the number of children that would be born to a woman if she were to live to the end of her childbearing years and (…)</t>
   </si>
   <si>
-    <t>Political Stability and Absence of Violence/Terrorism: Estimate</t>
-  </si>
-  <si>
-    <t>Regulatory Quality: Estimate</t>
-  </si>
-  <si>
     <t>Human Development Index</t>
   </si>
   <si>
@@ -1238,9 +1022,6 @@
     <t>% of urban population</t>
   </si>
   <si>
-    <t>% of pop aged 15-24 (w.r.t 15+ pop)</t>
-  </si>
-  <si>
     <t>This indicator measures the accessibility and affordability of civil courts, including whether people are aware of available remedies; can access and afford legal (…)</t>
   </si>
   <si>
@@ -1269,6 +1050,243 @@
   </si>
   <si>
     <t>The Civic Space Score measures the state of civic freedoms in a country, specifically evaluating the conditions for civil society based on three fundamental (…)</t>
+  </si>
+  <si>
+    <t>% of population aged 15-29</t>
+  </si>
+  <si>
+    <t>% of population aged 30-59</t>
+  </si>
+  <si>
+    <t>% of population aged 60+</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Assets score</t>
+  </si>
+  <si>
+    <t>Democracy index</t>
+  </si>
+  <si>
+    <t>Democracy index: Electoral process and pluralism score</t>
+  </si>
+  <si>
+    <t>Democracy index: Functioning of government score</t>
+  </si>
+  <si>
+    <t>Democracy index: Political culture score</t>
+  </si>
+  <si>
+    <t>Democracy index: Political participation score</t>
+  </si>
+  <si>
+    <t>Democracy index: Civil liberties score</t>
+  </si>
+  <si>
+    <t>% of population who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>% of population who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>Women, Business and the Law: Entrepreneurship score</t>
+  </si>
+  <si>
+    <t>Inequality of opportunities (by using the Human Capital Index)</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Marriage score</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Mobility score</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Parenthood score</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Pay score</t>
+  </si>
+  <si>
+    <t>Women, Business, and the Law: Pension score</t>
+  </si>
+  <si>
+    <t>Women, Business and the Law: Overall score</t>
+  </si>
+  <si>
+    <t>Women, Business and the Law: Workplace score</t>
+  </si>
+  <si>
+    <t>% of population aged 15-24 relative to those aged 15+</t>
+  </si>
+  <si>
+    <t>% of households that have a car</t>
+  </si>
+  <si>
+    <t>% of households that have a cellphone</t>
+  </si>
+  <si>
+    <t>% of households that have a computer</t>
+  </si>
+  <si>
+    <t>% of population who have gone without enough food</t>
+  </si>
+  <si>
+    <t>% of households that have a fridge</t>
+  </si>
+  <si>
+    <t>% of population who receive government transfers</t>
+  </si>
+  <si>
+    <t>% of households that have more than one person working for pay</t>
+  </si>
+  <si>
+    <t>% of households that have a motorcycle</t>
+  </si>
+  <si>
+    <t>% of households that own land</t>
+  </si>
+  <si>
+    <t>% of households that have a radio</t>
+  </si>
+  <si>
+    <t>% of population that receives remittances</t>
+  </si>
+  <si>
+    <t>% of population that saves money</t>
+  </si>
+  <si>
+    <t>% of households that have a sewing machine</t>
+  </si>
+  <si>
+    <t>% of households that have a TV</t>
+  </si>
+  <si>
+    <t>% of households that have a washing machine</t>
+  </si>
+  <si>
+    <t>% of population who are active members in an organization</t>
+  </si>
+  <si>
+    <t>% of population who attended a demonstration</t>
+  </si>
+  <si>
+    <t>% of population with confidence in elections</t>
+  </si>
+  <si>
+    <t>% of population with confidence in government</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the justice system</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the police</t>
+  </si>
+  <si>
+    <t>Number of fatalities due to violence</t>
+  </si>
+  <si>
+    <t>% of population that agrees they are free to join any organization they like without fear</t>
+  </si>
+  <si>
+    <t>% of population who can freely express what they think</t>
+  </si>
+  <si>
+    <t>% of population who do not like homosexuals as neighbors</t>
+  </si>
+  <si>
+    <t>% of population who feels insecure living in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who say that racist behavior is frequent in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who got together to try to solve problems</t>
+  </si>
+  <si>
+    <t>% of population who think most people can be trusted</t>
+  </si>
+  <si>
+    <t>% of population who feel unsafe from crime at home</t>
+  </si>
+  <si>
+    <t>% of population who were victims of crime</t>
+  </si>
+  <si>
+    <t>% of population who participate in a voluntary association</t>
+  </si>
+  <si>
+    <t>% of population who voted</t>
+  </si>
+  <si>
+    <t>% of population that works with a contract</t>
+  </si>
+  <si>
+    <t>% of households that have electricity</t>
+  </si>
+  <si>
+    <t>% of 25+ year-old women with at least secondary education</t>
+  </si>
+  <si>
+    <t>% of population with health insurance</t>
+  </si>
+  <si>
+    <t>% of households that have internet</t>
+  </si>
+  <si>
+    <t>% of population who use the internet</t>
+  </si>
+  <si>
+    <t>% of population who think men are better political leaders than women</t>
+  </si>
+  <si>
+    <t>% of population who think men have more right to job than women</t>
+  </si>
+  <si>
+    <t>% of population who own a bank account</t>
+  </si>
+  <si>
+    <t>% of population with completed primary education</t>
+  </si>
+  <si>
+    <t>% of population attending primary school</t>
+  </si>
+  <si>
+    <t>% of population who think it is a problem if women earn more than men</t>
+  </si>
+  <si>
+    <t>% of households that have access to improved sanitation</t>
+  </si>
+  <si>
+    <t>% of population attending secondary school</t>
+  </si>
+  <si>
+    <t>% of population who work and are self-employed</t>
+  </si>
+  <si>
+    <t>% of households that have water</t>
+  </si>
+  <si>
+    <t>Political Stability and Absence of Violence/Terrorism</t>
+  </si>
+  <si>
+    <t>Regulatory Quality</t>
+  </si>
+  <si>
+    <t>Voice and Accountability</t>
+  </si>
+  <si>
+    <t>rel_cesa</t>
+  </si>
+  <si>
+    <t>rel_scorecld</t>
+  </si>
+  <si>
+    <t>rel_inclusion</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1623,23 +1641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229DB37B-89C2-4DA6-A412-C36651605F97}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="159.28515625" customWidth="1"/>
+    <col min="3" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="159.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1647,2576 +1664,3737 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>415</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="F18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
         <v>118</v>
       </c>
-      <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F24" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>415</v>
       </c>
       <c r="F26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="F28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>414</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>415</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="F34" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>351</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>353</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F39" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>415</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>414</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>415</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E49" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F49" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>357</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F52" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G52" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E53" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E54" t="s">
-        <v>334</v>
+        <v>415</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F55" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E59" t="s">
+        <v>415</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" t="s">
         <v>334</v>
       </c>
-      <c r="F59" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F62" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F63" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F65" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D67" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G67" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" t="s">
+        <v>119</v>
+      </c>
+      <c r="I67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F69" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
       <c r="B71" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D71" t="s">
+        <v>414</v>
+      </c>
+      <c r="E71" t="s">
+        <v>415</v>
+      </c>
+      <c r="F71" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" t="s">
         <v>175</v>
       </c>
-      <c r="C71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>54</v>
       </c>
       <c r="B72" t="s">
+        <v>370</v>
+      </c>
+      <c r="C72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" t="s">
+        <v>415</v>
+      </c>
+      <c r="F72" t="s">
+        <v>116</v>
+      </c>
+      <c r="G72" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" t="s">
+        <v>119</v>
+      </c>
+      <c r="I72" t="s">
         <v>176</v>
       </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>371</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G73" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" t="s">
+        <v>119</v>
+      </c>
+      <c r="I73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F74" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" t="s">
+        <v>119</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H75" t="s">
+        <v>119</v>
+      </c>
+      <c r="I75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="C76" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H76" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G77" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G78" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" t="s">
+        <v>119</v>
+      </c>
+      <c r="I78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E79" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F79" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" t="s">
+        <v>119</v>
+      </c>
+      <c r="I79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H80" t="s">
+        <v>119</v>
+      </c>
+      <c r="I80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F81" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G81" t="s">
+        <v>116</v>
+      </c>
+      <c r="H81" t="s">
+        <v>119</v>
+      </c>
+      <c r="I81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E82" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="F82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G82" t="s">
+        <v>118</v>
+      </c>
+      <c r="H82" t="s">
+        <v>305</v>
+      </c>
+      <c r="I82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F83" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G83" t="s">
+        <v>116</v>
+      </c>
+      <c r="H83" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>382</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F84" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>415</v>
       </c>
       <c r="E85" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="F85" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G85" t="s">
+        <v>118</v>
+      </c>
+      <c r="H85" t="s">
+        <v>308</v>
+      </c>
+      <c r="I85" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F86" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H86" t="s">
+        <v>119</v>
+      </c>
+      <c r="I86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="C87" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F87" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>414</v>
       </c>
       <c r="E88" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G88" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" t="s">
+        <v>306</v>
+      </c>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>385</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E89" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89" t="s">
+        <v>119</v>
+      </c>
+      <c r="I89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>386</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H90" t="s">
+        <v>119</v>
+      </c>
+      <c r="I90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" t="s">
+        <v>119</v>
+      </c>
+      <c r="I91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
+      <c r="H92" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
+      <c r="H94" t="s">
+        <v>119</v>
+      </c>
+      <c r="I94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E95" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G95" t="s">
+        <v>116</v>
+      </c>
+      <c r="H95" t="s">
+        <v>119</v>
+      </c>
+      <c r="I95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s">
+        <v>119</v>
+      </c>
+      <c r="I96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E97" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F97" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" t="s">
+        <v>119</v>
+      </c>
+      <c r="I97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>392</v>
       </c>
       <c r="C98" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98" t="s">
+        <v>119</v>
+      </c>
+      <c r="I98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H99" t="s">
+        <v>119</v>
+      </c>
+      <c r="I99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D100" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H100" t="s">
+        <v>119</v>
+      </c>
+      <c r="I100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F101" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H101" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D102" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H102" t="s">
+        <v>119</v>
+      </c>
+      <c r="I102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="C103" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G103" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" t="s">
+        <v>119</v>
+      </c>
+      <c r="I103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" t="s">
+        <v>119</v>
+      </c>
+      <c r="I104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G105" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>399</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E106" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H106" t="s">
+        <v>119</v>
+      </c>
+      <c r="I106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E107" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F107" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G107" t="s">
+        <v>116</v>
+      </c>
+      <c r="H107" t="s">
+        <v>119</v>
+      </c>
+      <c r="I107" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="C108" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E108" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F108" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G108" t="s">
+        <v>116</v>
+      </c>
+      <c r="H108" t="s">
+        <v>119</v>
+      </c>
+      <c r="I108" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F109" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G109" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" t="s">
+        <v>119</v>
+      </c>
+      <c r="I109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="D110" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F110" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G110" t="s">
+        <v>116</v>
+      </c>
+      <c r="H110" t="s">
+        <v>119</v>
+      </c>
+      <c r="I110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F111" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111" t="s">
+        <v>119</v>
+      </c>
+      <c r="I111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F112" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G112" t="s">
+        <v>116</v>
+      </c>
+      <c r="H112" t="s">
+        <v>119</v>
+      </c>
+      <c r="I112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>155</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D113" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E113" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F113" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G113" t="s">
+        <v>116</v>
+      </c>
+      <c r="H113" t="s">
+        <v>119</v>
+      </c>
+      <c r="I113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F114" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G114" t="s">
+        <v>116</v>
+      </c>
+      <c r="H114" t="s">
+        <v>119</v>
+      </c>
+      <c r="I114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>406</v>
       </c>
       <c r="C115" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D115" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F115" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G115" t="s">
+        <v>116</v>
+      </c>
+      <c r="H115" t="s">
+        <v>119</v>
+      </c>
+      <c r="I115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C116" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G116" t="s">
+        <v>116</v>
+      </c>
+      <c r="H116" t="s">
+        <v>119</v>
+      </c>
+      <c r="I116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>407</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D117" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E117" t="s">
+        <v>414</v>
+      </c>
+      <c r="F117" t="s">
+        <v>116</v>
+      </c>
+      <c r="G117" t="s">
+        <v>116</v>
+      </c>
+      <c r="H117" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>414</v>
+      </c>
+      <c r="D118" t="s">
+        <v>414</v>
+      </c>
+      <c r="E118" t="s">
+        <v>414</v>
+      </c>
+      <c r="F118" t="s">
+        <v>129</v>
+      </c>
+      <c r="G118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H118" t="s">
+        <v>119</v>
+      </c>
+      <c r="I118" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" t="s">
+        <v>415</v>
+      </c>
+      <c r="D119" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" t="s">
+        <v>415</v>
+      </c>
+      <c r="F119" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" t="s">
+        <v>266</v>
+      </c>
+      <c r="I119" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" t="s">
+        <v>414</v>
+      </c>
+      <c r="E120" t="s">
+        <v>414</v>
+      </c>
+      <c r="F120" t="s">
+        <v>116</v>
+      </c>
+      <c r="G120" t="s">
+        <v>116</v>
+      </c>
+      <c r="H120" t="s">
+        <v>119</v>
+      </c>
+      <c r="I120" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" t="s">
+        <v>264</v>
+      </c>
+      <c r="C121" t="s">
+        <v>415</v>
+      </c>
+      <c r="D121" t="s">
+        <v>414</v>
+      </c>
+      <c r="E121" t="s">
+        <v>415</v>
+      </c>
+      <c r="F121" t="s">
+        <v>117</v>
+      </c>
+      <c r="G121" t="s">
         <v>135</v>
       </c>
-      <c r="F117" t="s">
+      <c r="H121" t="s">
+        <v>265</v>
+      </c>
+      <c r="I121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" t="s">
+        <v>415</v>
+      </c>
+      <c r="D122" t="s">
+        <v>415</v>
+      </c>
+      <c r="E122" t="s">
+        <v>415</v>
+      </c>
+      <c r="F122" t="s">
+        <v>117</v>
+      </c>
+      <c r="G122" t="s">
+        <v>135</v>
+      </c>
+      <c r="H122" t="s">
+        <v>271</v>
+      </c>
+      <c r="I122" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>408</v>
+      </c>
+      <c r="C123" t="s">
+        <v>414</v>
+      </c>
+      <c r="D123" t="s">
+        <v>414</v>
+      </c>
+      <c r="E123" t="s">
+        <v>415</v>
+      </c>
+      <c r="F123" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" t="s">
+        <v>118</v>
+      </c>
+      <c r="H123" t="s">
+        <v>273</v>
+      </c>
+      <c r="I123" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" t="s">
+        <v>414</v>
+      </c>
+      <c r="D124" t="s">
+        <v>414</v>
+      </c>
+      <c r="E124" t="s">
+        <v>415</v>
+      </c>
+      <c r="F124" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" t="s">
+        <v>275</v>
+      </c>
+      <c r="I124" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" t="s">
+        <v>415</v>
+      </c>
+      <c r="E125" t="s">
+        <v>415</v>
+      </c>
+      <c r="F125" t="s">
+        <v>129</v>
+      </c>
+      <c r="G125" t="s">
+        <v>118</v>
+      </c>
+      <c r="H125" t="s">
+        <v>273</v>
+      </c>
+      <c r="I125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>415</v>
+      </c>
+      <c r="D126" t="s">
+        <v>415</v>
+      </c>
+      <c r="E126" t="s">
+        <v>415</v>
+      </c>
+      <c r="F126" t="s">
+        <v>116</v>
+      </c>
+      <c r="G126" t="s">
+        <v>116</v>
+      </c>
+      <c r="H126" t="s">
+        <v>119</v>
+      </c>
+      <c r="I126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>307</v>
-      </c>
-      <c r="B118" t="s">
-        <v>308</v>
-      </c>
-      <c r="C118" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" t="s">
-        <v>134</v>
-      </c>
-      <c r="E118" t="s">
-        <v>135</v>
-      </c>
-      <c r="F118" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>314</v>
-      </c>
-      <c r="B119" t="s">
-        <v>328</v>
-      </c>
-      <c r="C119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D119" t="s">
-        <v>132</v>
-      </c>
-      <c r="E119" t="s">
-        <v>327</v>
-      </c>
-      <c r="F119" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>315</v>
-      </c>
-      <c r="B120" t="s">
-        <v>324</v>
-      </c>
-      <c r="C120" t="s">
-        <v>132</v>
-      </c>
-      <c r="D120" t="s">
-        <v>132</v>
-      </c>
-      <c r="E120" t="s">
-        <v>135</v>
-      </c>
-      <c r="F120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>316</v>
-      </c>
-      <c r="B121" t="s">
-        <v>325</v>
-      </c>
-      <c r="C121" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" t="s">
-        <v>326</v>
-      </c>
-      <c r="F121" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>317</v>
-      </c>
-      <c r="B122" t="s">
-        <v>331</v>
-      </c>
-      <c r="C122" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" t="s">
-        <v>170</v>
-      </c>
-      <c r="E122" t="s">
-        <v>332</v>
-      </c>
-      <c r="F122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" t="s">
-        <v>382</v>
-      </c>
-      <c r="C123" t="s">
-        <v>160</v>
-      </c>
-      <c r="D123" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" t="s">
-        <v>334</v>
-      </c>
-      <c r="F123" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>319</v>
-      </c>
-      <c r="B124" t="s">
-        <v>335</v>
-      </c>
-      <c r="C124" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" t="s">
-        <v>336</v>
-      </c>
-      <c r="F124" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>320</v>
-      </c>
-      <c r="B125" t="s">
-        <v>383</v>
-      </c>
-      <c r="C125" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" t="s">
-        <v>134</v>
-      </c>
-      <c r="E125" t="s">
-        <v>334</v>
-      </c>
-      <c r="F125" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>321</v>
-      </c>
-      <c r="B126" t="s">
-        <v>337</v>
-      </c>
-      <c r="C126" t="s">
-        <v>132</v>
-      </c>
-      <c r="D126" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>322</v>
-      </c>
-      <c r="B127" t="s">
-        <v>338</v>
-      </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="F127" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G127" t="s">
+        <v>118</v>
+      </c>
+      <c r="H127" t="s">
+        <v>278</v>
+      </c>
+      <c r="I127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="E128" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="F128" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G128" t="s">
+        <v>116</v>
+      </c>
+      <c r="H128" t="s">
+        <v>119</v>
+      </c>
+      <c r="I128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="B129" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>414</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="E129" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="F129" t="s">
-        <v>347</v>
+        <v>129</v>
+      </c>
+      <c r="G129" t="s">
+        <v>118</v>
+      </c>
+      <c r="H129" t="s">
+        <v>273</v>
+      </c>
+      <c r="I129" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/support files/SSGD indicators metadata.xlsx
+++ b/support files/SSGD indicators metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SSGD v2.0\support files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSGD v2.0 GitHub\Social-Sustainability-Global-Database-v2.0\support files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D20B16-5FCF-4371-8711-014E78D5815E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767196E-37E2-435A-BD79-04F6966A7866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F865E888-4C0B-4936-B2BD-4E294CF4B59A}"/>
   </bookViews>
@@ -422,9 +422,6 @@
     <t>Labor force participation rate</t>
   </si>
   <si>
-    <t>% of pop work and are self-employed</t>
-  </si>
-  <si>
     <t>Unemployment rate</t>
   </si>
   <si>
@@ -1287,6 +1284,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>% of population that has social security</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229DB37B-89C2-4DA6-A412-C36651605F97}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1664,13 +1666,13 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>412</v>
-      </c>
-      <c r="E1" t="s">
-        <v>413</v>
       </c>
       <c r="F1" t="s">
         <v>94</v>
@@ -1682,7 +1684,7 @@
         <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,16 +1692,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F2" t="s">
         <v>116</v>
@@ -1711,7 +1713,7 @@
         <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1719,16 +1721,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F3" t="s">
         <v>116</v>
@@ -1740,7 +1742,7 @@
         <v>119</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1748,16 +1750,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
         <v>116</v>
@@ -1769,27 +1771,27 @@
         <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
         <v>118</v>
@@ -1798,7 +1800,7 @@
         <v>119</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1806,19 +1808,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
         <v>118</v>
@@ -1827,7 +1829,7 @@
         <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,25 +1840,25 @@
         <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F7" t="s">
         <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1864,202 +1866,202 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F8" t="s">
         <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
         <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
         <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2067,16 +2069,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -2088,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2096,16 +2098,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F16" t="s">
         <v>116</v>
@@ -2117,36 +2119,36 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
         <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2157,45 +2159,45 @@
         <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F18" t="s">
         <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
         <v>118</v>
@@ -2204,7 +2206,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2215,22 +2217,22 @@
         <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
         <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
         <v>103</v>
@@ -2244,22 +2246,22 @@
         <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" t="s">
         <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" t="s">
         <v>104</v>
@@ -2273,22 +2275,22 @@
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" t="s">
         <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
         <v>105</v>
@@ -2302,22 +2304,22 @@
         <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
         <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
         <v>112</v>
@@ -2331,22 +2333,22 @@
         <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
         <v>113</v>
@@ -2360,22 +2362,22 @@
         <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
         <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
         <v>114</v>
@@ -2389,25 +2391,25 @@
         <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F26" t="s">
         <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2418,13 +2420,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F27" t="s">
         <v>116</v>
@@ -2436,7 +2438,7 @@
         <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2444,28 +2446,28 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
         <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2473,25 +2475,25 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F29" t="s">
         <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29" t="s">
         <v>106</v>
@@ -2505,16 +2507,16 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
         <v>118</v>
@@ -2531,19 +2533,19 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
         <v>118</v>
@@ -2552,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="I31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2560,28 +2562,28 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F32" t="s">
         <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2589,19 +2591,19 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>118</v>
@@ -2610,36 +2612,36 @@
         <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" t="s">
         <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2650,22 +2652,22 @@
         <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F35" t="s">
         <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I35" t="s">
         <v>108</v>
@@ -2673,22 +2675,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
         <v>118</v>
@@ -2697,27 +2699,27 @@
         <v>119</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" t="s">
         <v>118</v>
@@ -2726,7 +2728,7 @@
         <v>119</v>
       </c>
       <c r="I37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2737,16 +2739,16 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
         <v>118</v>
@@ -2760,22 +2762,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
         <v>118</v>
@@ -2784,27 +2786,27 @@
         <v>119</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" t="s">
         <v>118</v>
@@ -2813,27 +2815,27 @@
         <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
         <v>118</v>
@@ -2842,7 +2844,7 @@
         <v>119</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,13 +2855,13 @@
         <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F42" t="s">
         <v>116</v>
@@ -2879,16 +2881,16 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F43" t="s">
         <v>116</v>
@@ -2900,7 +2902,7 @@
         <v>119</v>
       </c>
       <c r="I43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2911,25 +2913,25 @@
         <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" t="s">
         <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2940,13 +2942,13 @@
         <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F45" t="s">
         <v>116</v>
@@ -2955,10 +2957,10 @@
         <v>116</v>
       </c>
       <c r="H45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2969,25 +2971,25 @@
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F46" t="s">
         <v>117</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2995,16 +2997,16 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F47" t="s">
         <v>116</v>
@@ -3016,7 +3018,7 @@
         <v>119</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,13 +3029,13 @@
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F48" t="s">
         <v>116</v>
@@ -3045,27 +3047,27 @@
         <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
         <v>118</v>
@@ -3074,27 +3076,27 @@
         <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" t="s">
         <v>118</v>
@@ -3103,7 +3105,7 @@
         <v>119</v>
       </c>
       <c r="I50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3111,16 +3113,16 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F51" t="s">
         <v>116</v>
@@ -3132,7 +3134,7 @@
         <v>119</v>
       </c>
       <c r="I51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3140,19 +3142,19 @@
         <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G52" t="s">
         <v>118</v>
@@ -3161,7 +3163,7 @@
         <v>119</v>
       </c>
       <c r="I52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,25 +3174,25 @@
         <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
         <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3201,25 +3203,25 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" t="s">
         <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3227,19 +3229,19 @@
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G55" t="s">
         <v>118</v>
@@ -3248,7 +3250,7 @@
         <v>119</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,19 +3258,19 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" t="s">
         <v>118</v>
@@ -3277,7 +3279,7 @@
         <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,19 +3287,19 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G57" t="s">
         <v>118</v>
@@ -3306,7 +3308,7 @@
         <v>119</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3314,19 +3316,19 @@
         <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G58" t="s">
         <v>118</v>
@@ -3335,7 +3337,7 @@
         <v>119</v>
       </c>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3346,25 +3348,25 @@
         <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
         <v>118</v>
       </c>
       <c r="H59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3375,16 +3377,16 @@
         <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D60" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
         <v>118</v>
@@ -3393,7 +3395,7 @@
         <v>119</v>
       </c>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3401,16 +3403,16 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F61" t="s">
         <v>116</v>
@@ -3422,7 +3424,7 @@
         <v>119</v>
       </c>
       <c r="I61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3430,16 +3432,16 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F62" t="s">
         <v>116</v>
@@ -3451,7 +3453,7 @@
         <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3459,16 +3461,16 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F63" t="s">
         <v>116</v>
@@ -3480,7 +3482,7 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,16 +3490,16 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F64" t="s">
         <v>116</v>
@@ -3509,7 +3511,7 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3517,16 +3519,16 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F65" t="s">
         <v>116</v>
@@ -3538,7 +3540,7 @@
         <v>119</v>
       </c>
       <c r="I65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,16 +3548,16 @@
         <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E66" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F66" t="s">
         <v>116</v>
@@ -3567,7 +3569,7 @@
         <v>119</v>
       </c>
       <c r="I66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3575,16 +3577,16 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F67" t="s">
         <v>116</v>
@@ -3596,7 +3598,7 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,16 +3606,16 @@
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F68" t="s">
         <v>116</v>
@@ -3625,7 +3627,7 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,16 +3635,16 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D69" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F69" t="s">
         <v>116</v>
@@ -3654,7 +3656,7 @@
         <v>119</v>
       </c>
       <c r="I69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3662,16 +3664,16 @@
         <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F70" t="s">
         <v>116</v>
@@ -3683,7 +3685,7 @@
         <v>119</v>
       </c>
       <c r="I70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3691,16 +3693,16 @@
         <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F71" t="s">
         <v>116</v>
@@ -3712,7 +3714,7 @@
         <v>119</v>
       </c>
       <c r="I71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3720,16 +3722,16 @@
         <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F72" t="s">
         <v>116</v>
@@ -3741,7 +3743,7 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3749,16 +3751,16 @@
         <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F73" t="s">
         <v>116</v>
@@ -3770,7 +3772,7 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3778,16 +3780,16 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E74" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F74" t="s">
         <v>116</v>
@@ -3799,7 +3801,7 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3807,16 +3809,16 @@
         <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F75" t="s">
         <v>116</v>
@@ -3828,7 +3830,7 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3836,16 +3838,16 @@
         <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F76" t="s">
         <v>116</v>
@@ -3857,7 +3859,7 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3865,16 +3867,16 @@
         <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F77" t="s">
         <v>116</v>
@@ -3886,7 +3888,7 @@
         <v>119</v>
       </c>
       <c r="I77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3894,16 +3896,16 @@
         <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F78" t="s">
         <v>116</v>
@@ -3915,7 +3917,7 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,16 +3925,16 @@
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F79" t="s">
         <v>116</v>
@@ -3944,7 +3946,7 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,16 +3954,16 @@
         <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F80" t="s">
         <v>116</v>
@@ -3973,7 +3975,7 @@
         <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,16 +3983,16 @@
         <v>63</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F81" t="s">
         <v>116</v>
@@ -4002,7 +4004,7 @@
         <v>119</v>
       </c>
       <c r="I81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4010,16 +4012,16 @@
         <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F82" t="s">
         <v>117</v>
@@ -4028,10 +4030,10 @@
         <v>118</v>
       </c>
       <c r="H82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4039,16 +4041,16 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D83" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F83" t="s">
         <v>116</v>
@@ -4060,7 +4062,7 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,16 +4070,16 @@
         <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D84" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F84" t="s">
         <v>116</v>
@@ -4089,7 +4091,7 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4097,16 +4099,16 @@
         <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E85" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F85" t="s">
         <v>117</v>
@@ -4115,10 +4117,10 @@
         <v>118</v>
       </c>
       <c r="H85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4126,16 +4128,16 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F86" t="s">
         <v>116</v>
@@ -4147,7 +4149,7 @@
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4155,16 +4157,16 @@
         <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D87" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E87" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F87" t="s">
         <v>116</v>
@@ -4176,7 +4178,7 @@
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,22 +4189,22 @@
         <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D88" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F88" t="s">
         <v>117</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I88" t="s">
         <v>125</v>
@@ -4213,16 +4215,16 @@
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E89" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
         <v>116</v>
@@ -4234,7 +4236,7 @@
         <v>119</v>
       </c>
       <c r="I89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4242,16 +4244,16 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F90" t="s">
         <v>116</v>
@@ -4263,7 +4265,7 @@
         <v>119</v>
       </c>
       <c r="I90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4271,16 +4273,16 @@
         <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F91" t="s">
         <v>116</v>
@@ -4292,7 +4294,7 @@
         <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4300,16 +4302,16 @@
         <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F92" t="s">
         <v>116</v>
@@ -4321,7 +4323,7 @@
         <v>119</v>
       </c>
       <c r="I92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4329,16 +4331,16 @@
         <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F93" t="s">
         <v>116</v>
@@ -4350,7 +4352,7 @@
         <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4358,16 +4360,16 @@
         <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F94" t="s">
         <v>116</v>
@@ -4379,7 +4381,7 @@
         <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4387,16 +4389,16 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D95" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F95" t="s">
         <v>116</v>
@@ -4408,24 +4410,24 @@
         <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F96" t="s">
         <v>116</v>
@@ -4437,24 +4439,24 @@
         <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F97" t="s">
         <v>116</v>
@@ -4466,7 +4468,7 @@
         <v>119</v>
       </c>
       <c r="I97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4474,16 +4476,16 @@
         <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F98" t="s">
         <v>116</v>
@@ -4495,7 +4497,7 @@
         <v>119</v>
       </c>
       <c r="I98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,16 +4505,16 @@
         <v>79</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F99" t="s">
         <v>116</v>
@@ -4524,24 +4526,24 @@
         <v>119</v>
       </c>
       <c r="I99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D100" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F100" t="s">
         <v>116</v>
@@ -4553,7 +4555,7 @@
         <v>119</v>
       </c>
       <c r="I100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4561,16 +4563,16 @@
         <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F101" t="s">
         <v>116</v>
@@ -4582,7 +4584,7 @@
         <v>119</v>
       </c>
       <c r="I101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4590,16 +4592,16 @@
         <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F102" t="s">
         <v>116</v>
@@ -4611,7 +4613,7 @@
         <v>119</v>
       </c>
       <c r="I102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4619,16 +4621,16 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F103" t="s">
         <v>116</v>
@@ -4640,7 +4642,7 @@
         <v>119</v>
       </c>
       <c r="I103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4651,13 +4653,13 @@
         <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F104" t="s">
         <v>116</v>
@@ -4674,19 +4676,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E105" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F105" t="s">
         <v>116</v>
@@ -4698,24 +4700,24 @@
         <v>119</v>
       </c>
       <c r="I105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F106" t="s">
         <v>116</v>
@@ -4727,7 +4729,7 @@
         <v>119</v>
       </c>
       <c r="I106" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4735,16 +4737,16 @@
         <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F107" t="s">
         <v>116</v>
@@ -4756,7 +4758,7 @@
         <v>119</v>
       </c>
       <c r="I107" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4764,16 +4766,16 @@
         <v>85</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E108" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F108" t="s">
         <v>116</v>
@@ -4785,7 +4787,7 @@
         <v>119</v>
       </c>
       <c r="I108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4793,16 +4795,16 @@
         <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C109" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D109" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E109" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F109" t="s">
         <v>116</v>
@@ -4814,24 +4816,24 @@
         <v>119</v>
       </c>
       <c r="I109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D110" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E110" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F110" t="s">
         <v>116</v>
@@ -4843,24 +4845,24 @@
         <v>119</v>
       </c>
       <c r="I110" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E111" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F111" t="s">
         <v>116</v>
@@ -4872,7 +4874,7 @@
         <v>119</v>
       </c>
       <c r="I111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4880,16 +4882,16 @@
         <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D112" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E112" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F112" t="s">
         <v>116</v>
@@ -4901,7 +4903,7 @@
         <v>119</v>
       </c>
       <c r="I112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4909,16 +4911,16 @@
         <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F113" t="s">
         <v>116</v>
@@ -4930,7 +4932,7 @@
         <v>119</v>
       </c>
       <c r="I113" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4938,16 +4940,16 @@
         <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E114" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F114" t="s">
         <v>116</v>
@@ -4959,7 +4961,7 @@
         <v>119</v>
       </c>
       <c r="I114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4967,16 +4969,16 @@
         <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E115" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F115" t="s">
         <v>116</v>
@@ -4988,7 +4990,7 @@
         <v>119</v>
       </c>
       <c r="I115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4996,16 +4998,16 @@
         <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F116" t="s">
         <v>116</v>
@@ -5017,7 +5019,7 @@
         <v>119</v>
       </c>
       <c r="I116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5025,16 +5027,16 @@
         <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C117" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F117" t="s">
         <v>116</v>
@@ -5046,27 +5048,27 @@
         <v>119</v>
       </c>
       <c r="I117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" t="s">
         <v>246</v>
       </c>
-      <c r="B118" t="s">
-        <v>247</v>
-      </c>
       <c r="C118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G118" t="s">
         <v>118</v>
@@ -5075,53 +5077,53 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" t="s">
+        <v>414</v>
+      </c>
+      <c r="D119" t="s">
+        <v>413</v>
+      </c>
+      <c r="E119" t="s">
+        <v>414</v>
+      </c>
+      <c r="F119" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" t="s">
+        <v>116</v>
+      </c>
+      <c r="H119" t="s">
+        <v>265</v>
+      </c>
+      <c r="I119" t="s">
         <v>267</v>
-      </c>
-      <c r="C119" t="s">
-        <v>415</v>
-      </c>
-      <c r="D119" t="s">
-        <v>414</v>
-      </c>
-      <c r="E119" t="s">
-        <v>415</v>
-      </c>
-      <c r="F119" t="s">
-        <v>116</v>
-      </c>
-      <c r="G119" t="s">
-        <v>116</v>
-      </c>
-      <c r="H119" t="s">
-        <v>266</v>
-      </c>
-      <c r="I119" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F120" t="s">
         <v>116</v>
@@ -5133,169 +5135,169 @@
         <v>119</v>
       </c>
       <c r="I120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D121" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E121" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F121" t="s">
         <v>117</v>
       </c>
       <c r="G121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F122" t="s">
         <v>117</v>
       </c>
       <c r="G122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H122" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D123" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E123" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G123" t="s">
         <v>118</v>
       </c>
       <c r="H123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I123" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" t="s">
+        <v>413</v>
+      </c>
+      <c r="D124" t="s">
+        <v>413</v>
+      </c>
+      <c r="E124" t="s">
+        <v>414</v>
+      </c>
+      <c r="F124" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" t="s">
+        <v>116</v>
+      </c>
+      <c r="H124" t="s">
         <v>274</v>
       </c>
-      <c r="C124" t="s">
-        <v>414</v>
-      </c>
-      <c r="D124" t="s">
-        <v>414</v>
-      </c>
-      <c r="E124" t="s">
-        <v>415</v>
-      </c>
-      <c r="F124" t="s">
-        <v>116</v>
-      </c>
-      <c r="G124" t="s">
-        <v>116</v>
-      </c>
-      <c r="H124" t="s">
-        <v>275</v>
-      </c>
       <c r="I124" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G125" t="s">
         <v>118</v>
       </c>
       <c r="H125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E126" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F126" t="s">
         <v>116</v>
@@ -5307,94 +5309,94 @@
         <v>119</v>
       </c>
       <c r="I126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
         <v>118</v>
       </c>
       <c r="H127" t="s">
+        <v>277</v>
+      </c>
+      <c r="I127" t="s">
         <v>278</v>
-      </c>
-      <c r="I127" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" t="s">
+        <v>414</v>
+      </c>
+      <c r="D128" t="s">
+        <v>413</v>
+      </c>
+      <c r="E128" t="s">
+        <v>414</v>
+      </c>
+      <c r="F128" t="s">
+        <v>116</v>
+      </c>
+      <c r="G128" t="s">
+        <v>116</v>
+      </c>
+      <c r="H128" t="s">
+        <v>119</v>
+      </c>
+      <c r="I128" t="s">
         <v>280</v>
-      </c>
-      <c r="C128" t="s">
-        <v>415</v>
-      </c>
-      <c r="D128" t="s">
-        <v>414</v>
-      </c>
-      <c r="E128" t="s">
-        <v>415</v>
-      </c>
-      <c r="F128" t="s">
-        <v>116</v>
-      </c>
-      <c r="G128" t="s">
-        <v>116</v>
-      </c>
-      <c r="H128" t="s">
-        <v>119</v>
-      </c>
-      <c r="I128" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B129" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E129" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G129" t="s">
         <v>118</v>
       </c>
       <c r="H129" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I129" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
